--- a/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,12 @@
     <t>model</t>
   </si>
   <si>
+    <t>effect_group_id</t>
+  </si>
+  <si>
+    <t>search_target</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -34,6 +40,12 @@
     <t>int#ref=TbResource</t>
   </si>
   <si>
+    <t>int#ref=TbEffect</t>
+  </si>
+  <si>
+    <t>int32#ref=TbSearch?</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -46,10 +58,10 @@
     <t>模型</t>
   </si>
   <si>
-    <t>交互转换类型</t>
-  </si>
-  <si>
-    <t>交互转换ID</t>
+    <t>效果组ID</t>
+  </si>
+  <si>
+    <t>目标搜索</t>
   </si>
   <si>
     <t>##group</t>
@@ -59,9 +71,6 @@
   </si>
   <si>
     <t>血瓶</t>
-  </si>
-  <si>
-    <t>Prop</t>
   </si>
   <si>
     <t>水瓶</t>
@@ -1056,7 +1065,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1065,13 +1074,13 @@
     <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5982142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="16377" width="10.4107142857143" style="1" customWidth="1"/>
-    <col min="16378" max="16384" width="10.4107142857143" style="1"/>
+    <col min="16378" max="16383" width="10.4107142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1082,61 +1091,75 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>5001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>50010001</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
+      <c r="E5" s="1">
+        <v>92000001</v>
       </c>
       <c r="F5" s="1">
         <v>92000001</v>
@@ -1147,13 +1170,13 @@
         <v>5002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>50020001</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
+      <c r="E6" s="1">
+        <v>92010001</v>
       </c>
       <c r="F6" s="1">
         <v>92010001</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>水瓶</t>
+  </si>
+  <si>
+    <t>目标+1</t>
+  </si>
+  <si>
+    <t>攻击+100%</t>
+  </si>
+  <si>
+    <t>攻速+100%</t>
   </si>
 </sst>
 </file>
@@ -1062,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
@@ -1159,10 +1168,10 @@
         <v>50010001</v>
       </c>
       <c r="E5" s="1">
-        <v>92000001</v>
+        <v>50010001</v>
       </c>
       <c r="F5" s="1">
-        <v>92000001</v>
+        <v>50010001</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1176,10 +1185,61 @@
         <v>50020001</v>
       </c>
       <c r="E6" s="1">
-        <v>92010001</v>
+        <v>50020001</v>
       </c>
       <c r="F6" s="1">
-        <v>92010001</v>
+        <v>50020001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>5003</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50020001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50030001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>97010004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>5004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50020001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50040001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>97010004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>5005</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50020001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50050001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>97010004</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1205,7 +1205,7 @@
         <v>50030001</v>
       </c>
       <c r="F7" s="1">
-        <v>97010004</v>
+        <v>50030001</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1222,7 +1222,7 @@
         <v>50040001</v>
       </c>
       <c r="F8" s="1">
-        <v>97010004</v>
+        <v>50030001</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1239,7 +1239,7 @@
         <v>50050001</v>
       </c>
       <c r="F9" s="1">
-        <v>97010004</v>
+        <v>50030001</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>int#ref=TbResource</t>
-  </si>
-  <si>
-    <t>int#ref=TbEffect</t>
   </si>
   <si>
     <t>int32#ref=TbSearch?</t>
@@ -1074,7 +1071,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1083,7 +1080,7 @@
     <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5982142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8035714285714" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="16377" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="16378" max="16383" width="10.4107142857143" style="1"/>
@@ -1119,40 +1116,40 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1162,7 +1159,7 @@
         <v>5001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>50010001</v>
@@ -1179,7 +1176,7 @@
         <v>5002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>50020001</v>
@@ -1196,7 +1193,7 @@
         <v>5003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>50020001</v>
@@ -1213,7 +1210,7 @@
         <v>5004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>50020001</v>
@@ -1230,7 +1227,7 @@
         <v>5005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>50020001</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int#ref=TbResource</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>模型</t>
   </si>
   <si>
@@ -70,16 +79,31 @@
     <t>血瓶</t>
   </si>
   <si>
+    <t>恢复血量</t>
+  </si>
+  <si>
     <t>水瓶</t>
   </si>
   <si>
+    <t>恢复蓝量</t>
+  </si>
+  <si>
     <t>目标+1</t>
   </si>
   <si>
+    <t>普通攻击目标数量增加1</t>
+  </si>
+  <si>
     <t>攻击+100%</t>
   </si>
   <si>
+    <t>攻击力增加100%</t>
+  </si>
+  <si>
     <t>攻速+100%</t>
+  </si>
+  <si>
+    <t>攻击速度增加100%</t>
   </si>
 </sst>
 </file>
@@ -740,14 +764,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,25 +1092,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.0714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.8035714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16377" width="10.4107142857143" style="1" customWidth="1"/>
-    <col min="16378" max="16383" width="10.4107142857143" style="1"/>
+    <col min="4" max="4" width="24.4285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.0714285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.8035714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="16378" width="10.4107142857143" style="1" customWidth="1"/>
+    <col min="16379" max="16384" width="10.4107142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,139 +1128,166 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>5001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>50010001</v>
-      </c>
-      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
         <v>50010001</v>
       </c>
       <c r="F5" s="1">
         <v>50010001</v>
       </c>
+      <c r="G5" s="1">
+        <v>50010001</v>
+      </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>5002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>50020001</v>
-      </c>
-      <c r="E6" s="1">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
         <v>50020001</v>
       </c>
       <c r="F6" s="1">
         <v>50020001</v>
       </c>
+      <c r="G6" s="1">
+        <v>50020001</v>
+      </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>5003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
         <v>50020001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50030001</v>
       </c>
       <c r="F7" s="1">
         <v>50030001</v>
       </c>
+      <c r="G7" s="1">
+        <v>50030001</v>
+      </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>5004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
         <v>50020001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>50040001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>50030001</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>5005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
         <v>50020001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>50050001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>50030001</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -28,6 +28,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>price_placement</t>
+  </si>
+  <si>
     <t>effect_group_id</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>int#ref=TbResource</t>
   </si>
   <si>
+    <t>map,NumericType,int</t>
+  </si>
+  <si>
     <t>int32#ref=TbSearch?</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
   </si>
   <si>
     <t>模型</t>
+  </si>
+  <si>
+    <t>放置消耗类型</t>
+  </si>
+  <si>
+    <t>放置消耗值</t>
   </si>
   <si>
     <t>效果组ID</t>
@@ -495,10 +507,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -625,7 +646,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,34 +658,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,12 +770,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -769,6 +796,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,206 +1122,228 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.4285714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.0714285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.8035714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="16378" width="10.4107142857143" style="1" customWidth="1"/>
-    <col min="16379" max="16384" width="10.4107142857143" style="1"/>
+    <col min="6" max="6" width="14.5803571428571" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.1785714285714" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.8035714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="16380" width="10.4107142857143" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="10.4107142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="2">
         <v>5001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>50010001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>50010001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>50010001</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="2">
         <v>5002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>50020001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>50020001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>50020001</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="2">
         <v>5003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>50020001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>50030001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>50030001</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8" s="2">
         <v>5004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>50020001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>50040001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>50030001</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="2">
         <v>5005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>50020001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>50050001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>50030001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
